--- a/MSC_mean.xlsx
+++ b/MSC_mean.xlsx
@@ -69,7 +69,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C556"/>
+  <dimension ref="A1:C561"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -245,7 +245,7 @@
         <v>28915</v>
       </c>
       <c r="B16" s="2">
-        <v>7.8024542713422615</v>
+        <v>7.8024542713422616</v>
       </c>
       <c r="C16" s="2">
         <v>8</v>
@@ -399,7 +399,7 @@
         <v>29342</v>
       </c>
       <c r="B30" s="2">
-        <v>5.9861236652778826</v>
+        <v>5.9861236652778827</v>
       </c>
       <c r="C30" s="2">
         <v>6</v>
@@ -509,7 +509,7 @@
         <v>29646</v>
       </c>
       <c r="B40" s="2">
-        <v>5.9164425173903012</v>
+        <v>5.9164425173903013</v>
       </c>
       <c r="C40" s="2">
         <v>5.5</v>
@@ -707,7 +707,7 @@
         <v>30195</v>
       </c>
       <c r="B58" s="2">
-        <v>4.5473779195538659</v>
+        <v>4.547377919553866</v>
       </c>
       <c r="C58" s="2">
         <v>5</v>
@@ -762,7 +762,7 @@
         <v>30348</v>
       </c>
       <c r="B63" s="2">
-        <v>3.0168031414968874</v>
+        <v>3.0168031414968875</v>
       </c>
       <c r="C63" s="2">
         <v>3</v>
@@ -1235,7 +1235,7 @@
         <v>31656</v>
       </c>
       <c r="B106" s="2">
-        <v>3.1968566598345713</v>
+        <v>3.1968566598345714</v>
       </c>
       <c r="C106" s="2">
         <v>3</v>
@@ -1301,7 +1301,7 @@
         <v>31837</v>
       </c>
       <c r="B112" s="2">
-        <v>3.5225225225225238</v>
+        <v>3.5225225225225239</v>
       </c>
       <c r="C112" s="2">
         <v>3</v>
@@ -1400,7 +1400,7 @@
         <v>32112</v>
       </c>
       <c r="B121" s="2">
-        <v>3.4805463577823454</v>
+        <v>3.4805463577823455</v>
       </c>
       <c r="C121" s="2">
         <v>3</v>
@@ -1620,7 +1620,7 @@
         <v>32721</v>
       </c>
       <c r="B141" s="2">
-        <v>4.1120689655172304</v>
+        <v>4.1120689655172305</v>
       </c>
       <c r="C141" s="2">
         <v>3</v>
@@ -1752,7 +1752,7 @@
         <v>33086</v>
       </c>
       <c r="B153" s="2">
-        <v>4.9559748427673131</v>
+        <v>4.9559748427673132</v>
       </c>
       <c r="C153" s="2">
         <v>4</v>
@@ -1928,7 +1928,7 @@
         <v>33573</v>
       </c>
       <c r="B169" s="2">
-        <v>2.7921810699588447</v>
+        <v>2.7921810699588448</v>
       </c>
       <c r="C169" s="2">
         <v>3</v>
@@ -2291,7 +2291,7 @@
         <v>34578</v>
       </c>
       <c r="B202" s="2">
-        <v>3.9258883248730871</v>
+        <v>3.9258883248730872</v>
       </c>
       <c r="C202" s="2">
         <v>3</v>
@@ -2379,7 +2379,7 @@
         <v>34820</v>
       </c>
       <c r="B210" s="2">
-        <v>3.644499640821464</v>
+        <v>3.6444996408214641</v>
       </c>
       <c r="C210" s="2">
         <v>3</v>
@@ -2445,7 +2445,7 @@
         <v>35004</v>
       </c>
       <c r="B216" s="2">
-        <v>3.8650234741784208</v>
+        <v>3.8650234741784209</v>
       </c>
       <c r="C216" s="2">
         <v>3</v>
@@ -2929,7 +2929,7 @@
         <v>36342</v>
       </c>
       <c r="B260" s="2">
-        <v>2.8546275394531881</v>
+        <v>2.8546275394531882</v>
       </c>
       <c r="C260" s="2">
         <v>3</v>
@@ -3523,7 +3523,7 @@
         <v>37987</v>
       </c>
       <c r="B314" s="2">
-        <v>2.721703011422627</v>
+        <v>2.7217030114226271</v>
       </c>
       <c r="C314" s="2">
         <v>3</v>
@@ -3809,7 +3809,7 @@
         <v>38777</v>
       </c>
       <c r="B340" s="2">
-        <v>3.8258655804480663</v>
+        <v>3.8258655804480664</v>
       </c>
       <c r="C340" s="2">
         <v>3</v>
@@ -3842,7 +3842,7 @@
         <v>38869</v>
       </c>
       <c r="B343" s="2">
-        <v>4.0055299539170512</v>
+        <v>4.0055299539170513</v>
       </c>
       <c r="C343" s="2">
         <v>3</v>
@@ -3952,7 +3952,7 @@
         <v>39173</v>
       </c>
       <c r="B353" s="2">
-        <v>4.0764023210831581</v>
+        <v>4.0764023210831582</v>
       </c>
       <c r="C353" s="2">
         <v>3</v>
@@ -4557,7 +4557,7 @@
         <v>40848</v>
       </c>
       <c r="B408" s="2">
-        <v>4.0581717451523422</v>
+        <v>4.0581717451523423</v>
       </c>
       <c r="C408" s="2">
         <v>3</v>
@@ -5008,7 +5008,7 @@
         <v>42095</v>
       </c>
       <c r="B449" s="2">
-        <v>3.2291325695581174</v>
+        <v>3.2291325695581175</v>
       </c>
       <c r="C449" s="2">
         <v>3</v>
@@ -5305,7 +5305,7 @@
         <v>42917</v>
       </c>
       <c r="B476" s="2">
-        <v>3.0175685172171351</v>
+        <v>3.0175685172171352</v>
       </c>
       <c r="C476" s="2">
         <v>2</v>
@@ -5525,7 +5525,7 @@
         <v>43525</v>
       </c>
       <c r="B496" s="2">
-        <v>2.977350720658908</v>
+        <v>2.9773507206589081</v>
       </c>
       <c r="C496" s="2">
         <v>3</v>
@@ -5712,7 +5712,7 @@
         <v>44044</v>
       </c>
       <c r="B513" s="2">
-        <v>3.5063510392609873</v>
+        <v>3.5063510392609874</v>
       </c>
       <c r="C513" s="2">
         <v>3</v>
@@ -6009,7 +6009,7 @@
         <v>44866</v>
       </c>
       <c r="B540" s="2">
-        <v>5.424648786717797</v>
+        <v>5.4246487867177971</v>
       </c>
       <c r="C540" s="2">
         <v>5</v>
@@ -6141,7 +6141,7 @@
         <v>45231</v>
       </c>
       <c r="B552" s="2">
-        <v>4.5292981326465291</v>
+        <v>4.5292981326465292</v>
       </c>
       <c r="C552" s="2">
         <v>4</v>
@@ -6191,6 +6191,61 @@
         <v>3</v>
       </c>
     </row>
+    <row r="557">
+      <c r="A557" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B557" s="2">
+        <v>3.5666666666666687</v>
+      </c>
+      <c r="C557" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B558" s="2">
+        <v>3.5617503258426972</v>
+      </c>
+      <c r="C558" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B559" s="2">
+        <v>4.055667830833273</v>
+      </c>
+      <c r="C559" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B560" s="2">
+        <v>3.7555555567329311</v>
+      </c>
+      <c r="C560" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B561" s="2">
+        <v>3.0882353072943753</v>
+      </c>
+      <c r="C561" s="2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/MSC_mean.xlsx
+++ b/MSC_mean.xlsx
@@ -6196,7 +6196,7 @@
         <v>45383</v>
       </c>
       <c r="B557" s="2">
-        <v>3.5666666666666687</v>
+        <v>3.7540540540540364</v>
       </c>
       <c r="C557" s="2">
         <v>3</v>
@@ -6207,7 +6207,7 @@
         <v>45413</v>
       </c>
       <c r="B558" s="2">
-        <v>3.5617503258426972</v>
+        <v>3.7543231619330721</v>
       </c>
       <c r="C558" s="2">
         <v>3</v>
@@ -6218,7 +6218,7 @@
         <v>45444</v>
       </c>
       <c r="B559" s="2">
-        <v>4.055667830833273</v>
+        <v>3.5426782535649366</v>
       </c>
       <c r="C559" s="2">
         <v>3</v>
@@ -6229,7 +6229,7 @@
         <v>45474</v>
       </c>
       <c r="B560" s="2">
-        <v>3.7555555567329311</v>
+        <v>3.5052534869428618</v>
       </c>
       <c r="C560" s="2">
         <v>3</v>
@@ -6240,10 +6240,10 @@
         <v>45505</v>
       </c>
       <c r="B561" s="2">
-        <v>3.0882353072943753</v>
+        <v>3.095643567769347</v>
       </c>
       <c r="C561" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/MSC_mean.xlsx
+++ b/MSC_mean.xlsx
@@ -69,7 +69,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C561"/>
+  <dimension ref="A1:C567"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6246,6 +6246,72 @@
         <v>3</v>
       </c>
     </row>
+    <row r="562">
+      <c r="A562" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B562" s="2">
+        <v>3.0439546237485131</v>
+      </c>
+      <c r="C562" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B563" s="2">
+        <v>2.8981559020643028</v>
+      </c>
+      <c r="C563" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B564" s="2">
+        <v>2.0403693875787057</v>
+      </c>
+      <c r="C564" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B565" s="2">
+        <v>2.288815139456557</v>
+      </c>
+      <c r="C565" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B566" s="2">
+        <v>3.6692668713944512</v>
+      </c>
+      <c r="C566" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B567" s="2">
+        <v>4.0335035493262668</v>
+      </c>
+      <c r="C567" s="2">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/MSC_mean.xlsx
+++ b/MSC_mean.xlsx
@@ -69,7 +69,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C567"/>
+  <dimension ref="A1:C569"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -245,7 +245,7 @@
         <v>28915</v>
       </c>
       <c r="B16" s="2">
-        <v>7.8024542713422616</v>
+        <v>7.8024542713422615</v>
       </c>
       <c r="C16" s="2">
         <v>8</v>
@@ -399,7 +399,7 @@
         <v>29342</v>
       </c>
       <c r="B30" s="2">
-        <v>5.9861236652778827</v>
+        <v>5.9861236652778826</v>
       </c>
       <c r="C30" s="2">
         <v>6</v>
@@ -509,7 +509,7 @@
         <v>29646</v>
       </c>
       <c r="B40" s="2">
-        <v>5.9164425173903013</v>
+        <v>5.9164425173903012</v>
       </c>
       <c r="C40" s="2">
         <v>5.5</v>
@@ -707,7 +707,7 @@
         <v>30195</v>
       </c>
       <c r="B58" s="2">
-        <v>4.547377919553866</v>
+        <v>4.5473779195538659</v>
       </c>
       <c r="C58" s="2">
         <v>5</v>
@@ -762,7 +762,7 @@
         <v>30348</v>
       </c>
       <c r="B63" s="2">
-        <v>3.0168031414968875</v>
+        <v>3.0168031414968874</v>
       </c>
       <c r="C63" s="2">
         <v>3</v>
@@ -1235,7 +1235,7 @@
         <v>31656</v>
       </c>
       <c r="B106" s="2">
-        <v>3.1968566598345714</v>
+        <v>3.1968566598345713</v>
       </c>
       <c r="C106" s="2">
         <v>3</v>
@@ -1301,7 +1301,7 @@
         <v>31837</v>
       </c>
       <c r="B112" s="2">
-        <v>3.5225225225225239</v>
+        <v>3.5225225225225238</v>
       </c>
       <c r="C112" s="2">
         <v>3</v>
@@ -1400,7 +1400,7 @@
         <v>32112</v>
       </c>
       <c r="B121" s="2">
-        <v>3.4805463577823455</v>
+        <v>3.4805463577823454</v>
       </c>
       <c r="C121" s="2">
         <v>3</v>
@@ -1620,7 +1620,7 @@
         <v>32721</v>
       </c>
       <c r="B141" s="2">
-        <v>4.1120689655172305</v>
+        <v>4.1120689655172304</v>
       </c>
       <c r="C141" s="2">
         <v>3</v>
@@ -1752,7 +1752,7 @@
         <v>33086</v>
       </c>
       <c r="B153" s="2">
-        <v>4.9559748427673132</v>
+        <v>4.9559748427673131</v>
       </c>
       <c r="C153" s="2">
         <v>4</v>
@@ -1928,7 +1928,7 @@
         <v>33573</v>
       </c>
       <c r="B169" s="2">
-        <v>2.7921810699588448</v>
+        <v>2.7921810699588447</v>
       </c>
       <c r="C169" s="2">
         <v>3</v>
@@ -2291,7 +2291,7 @@
         <v>34578</v>
       </c>
       <c r="B202" s="2">
-        <v>3.9258883248730872</v>
+        <v>3.9258883248730871</v>
       </c>
       <c r="C202" s="2">
         <v>3</v>
@@ -2379,7 +2379,7 @@
         <v>34820</v>
       </c>
       <c r="B210" s="2">
-        <v>3.6444996408214641</v>
+        <v>3.644499640821464</v>
       </c>
       <c r="C210" s="2">
         <v>3</v>
@@ -2445,7 +2445,7 @@
         <v>35004</v>
       </c>
       <c r="B216" s="2">
-        <v>3.8650234741784209</v>
+        <v>3.8650234741784208</v>
       </c>
       <c r="C216" s="2">
         <v>3</v>
@@ -2929,7 +2929,7 @@
         <v>36342</v>
       </c>
       <c r="B260" s="2">
-        <v>2.8546275394531882</v>
+        <v>2.8546275394531881</v>
       </c>
       <c r="C260" s="2">
         <v>3</v>
@@ -3523,7 +3523,7 @@
         <v>37987</v>
       </c>
       <c r="B314" s="2">
-        <v>2.7217030114226271</v>
+        <v>2.721703011422627</v>
       </c>
       <c r="C314" s="2">
         <v>3</v>
@@ -3809,7 +3809,7 @@
         <v>38777</v>
       </c>
       <c r="B340" s="2">
-        <v>3.8258655804480664</v>
+        <v>3.8258655804480663</v>
       </c>
       <c r="C340" s="2">
         <v>3</v>
@@ -3842,7 +3842,7 @@
         <v>38869</v>
       </c>
       <c r="B343" s="2">
-        <v>4.0055299539170513</v>
+        <v>4.0055299539170512</v>
       </c>
       <c r="C343" s="2">
         <v>3</v>
@@ -3952,7 +3952,7 @@
         <v>39173</v>
       </c>
       <c r="B353" s="2">
-        <v>4.0764023210831582</v>
+        <v>4.0764023210831581</v>
       </c>
       <c r="C353" s="2">
         <v>3</v>
@@ -4557,7 +4557,7 @@
         <v>40848</v>
       </c>
       <c r="B408" s="2">
-        <v>4.0581717451523423</v>
+        <v>4.0581717451523422</v>
       </c>
       <c r="C408" s="2">
         <v>3</v>
@@ -5008,7 +5008,7 @@
         <v>42095</v>
       </c>
       <c r="B449" s="2">
-        <v>3.2291325695581175</v>
+        <v>3.2291325695581174</v>
       </c>
       <c r="C449" s="2">
         <v>3</v>
@@ -5305,7 +5305,7 @@
         <v>42917</v>
       </c>
       <c r="B476" s="2">
-        <v>3.0175685172171352</v>
+        <v>3.0175685172171351</v>
       </c>
       <c r="C476" s="2">
         <v>2</v>
@@ -5525,7 +5525,7 @@
         <v>43525</v>
       </c>
       <c r="B496" s="2">
-        <v>2.9773507206589081</v>
+        <v>2.977350720658908</v>
       </c>
       <c r="C496" s="2">
         <v>3</v>
@@ -5712,7 +5712,7 @@
         <v>44044</v>
       </c>
       <c r="B513" s="2">
-        <v>3.5063510392609874</v>
+        <v>3.5063510392609873</v>
       </c>
       <c r="C513" s="2">
         <v>3</v>
@@ -6009,7 +6009,7 @@
         <v>44866</v>
       </c>
       <c r="B540" s="2">
-        <v>5.4246487867177971</v>
+        <v>5.424648786717797</v>
       </c>
       <c r="C540" s="2">
         <v>5</v>
@@ -6141,7 +6141,7 @@
         <v>45231</v>
       </c>
       <c r="B552" s="2">
-        <v>4.5292981326465292</v>
+        <v>4.5292981326465291</v>
       </c>
       <c r="C552" s="2">
         <v>4</v>
@@ -6207,7 +6207,7 @@
         <v>45413</v>
       </c>
       <c r="B558" s="2">
-        <v>3.7543231619330721</v>
+        <v>3.8117489948181169</v>
       </c>
       <c r="C558" s="2">
         <v>3</v>
@@ -6218,7 +6218,7 @@
         <v>45444</v>
       </c>
       <c r="B559" s="2">
-        <v>3.5426782535649366</v>
+        <v>3.4167823221387024</v>
       </c>
       <c r="C559" s="2">
         <v>3</v>
@@ -6262,10 +6262,10 @@
         <v>45566</v>
       </c>
       <c r="B563" s="2">
-        <v>2.8981559020643028</v>
+        <v>2.6514813566866446</v>
       </c>
       <c r="C563" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564">
@@ -6273,7 +6273,7 @@
         <v>45597</v>
       </c>
       <c r="B564" s="2">
-        <v>2.0403693875787057</v>
+        <v>2.0227370817075117</v>
       </c>
       <c r="C564" s="2">
         <v>2</v>
@@ -6284,7 +6284,7 @@
         <v>45627</v>
       </c>
       <c r="B565" s="2">
-        <v>2.288815139456557</v>
+        <v>2.1889736559211377</v>
       </c>
       <c r="C565" s="2">
         <v>3</v>
@@ -6295,7 +6295,7 @@
         <v>45658</v>
       </c>
       <c r="B566" s="2">
-        <v>3.6692668713944512</v>
+        <v>3.7109657582482223</v>
       </c>
       <c r="C566" s="2">
         <v>3</v>
@@ -6306,10 +6306,32 @@
         <v>45689</v>
       </c>
       <c r="B567" s="2">
-        <v>4.0335035493262668</v>
+        <v>4.0326228841318468</v>
       </c>
       <c r="C567" s="2">
         <v>3</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B568" s="2">
+        <v>5.1144120461002753</v>
+      </c>
+      <c r="C568" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B569" s="2">
+        <v>6.0429111069797754</v>
+      </c>
+      <c r="C569" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
